--- a/model_exports/labels/2.0_True_False_3_4.xlsx
+++ b/model_exports/labels/2.0_True_False_3_4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C731"/>
+  <dimension ref="A1:C733"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,33 +453,33 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>t-494301276121731072</t>
+          <t>t-729342722264420352</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>t-793443964900737024</t>
+          <t>t-509432328561885184</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>t-933792655041064962</t>
+          <t>t-690710236638777344</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -492,7 +492,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>t-495123711071387649</t>
+          <t>t-690724653006921728</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -505,11 +505,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>t-571473938481602560</t>
+          <t>t-760665387113472001</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -518,24 +518,24 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>t-629748063494537216</t>
+          <t>t-760674522622152704</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>t-629757802915848193</t>
+          <t>t-498526651912032258</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -544,20 +544,20 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>t-548786999432605696</t>
+          <t>t-498546619508609024</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>t-549031298929786880</t>
+          <t>t-498600191088271361</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -570,7 +570,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>t-681917420068564992</t>
+          <t>t-498638581536399361</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -583,46 +583,46 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>t-682618491283857408</t>
+          <t>t-498641690949713920</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>t-683960479224586240</t>
+          <t>t-498643083517767681</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>t-684033292694327296</t>
+          <t>t-498648204872015872</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>t-684082364117585920</t>
+          <t>t-521738184288251906</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -635,11 +635,11 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>t-684154242035089408</t>
+          <t>t-521768704259162112</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -648,20 +648,20 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>t-701855843747241986</t>
+          <t>t-548786999432605696</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>t-707911328145477632</t>
+          <t>t-549031298929786880</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -674,59 +674,59 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>t-707931200627875840</t>
+          <t>t-573511311906115584</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>t-708036809603698689</t>
+          <t>t-573530576818434048</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>t-708038329514790912</t>
+          <t>t-622509518346268672</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>t-708041345638776832</t>
+          <t>t-641712529677398016</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>t-708249950530961408</t>
+          <t>t-648290405872627712</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -739,7 +739,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>t-708273072424554497</t>
+          <t>t-681917420068564992</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -752,7 +752,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>t-708363296160747520</t>
+          <t>t-682618491283857408</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -765,11 +765,11 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>t-708384601509601280</t>
+          <t>t-683960479224586240</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -778,11 +778,11 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>t-708389352393539585</t>
+          <t>t-684033292694327296</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>1</v>
@@ -791,46 +791,46 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>t-708444180087971840</t>
+          <t>t-684082364117585920</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>t-709190294621835264</t>
+          <t>t-684154242035089408</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>t-709228058117480449</t>
+          <t>t-756508260925075456</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>t-709405662791372802</t>
+          <t>t-784233737512890376</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -843,7 +843,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>t-709892861110657024</t>
+          <t>t-784234780590080001</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -856,20 +856,20 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>t-710265095104946176</t>
+          <t>t-854007994534813696</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>t-738281921046675456</t>
+          <t>t-875748360933847041</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -882,20 +882,20 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>t-738404067647455232</t>
+          <t>t-887086137789091841</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>t-738429326224302080</t>
+          <t>t-909776370410168323</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -908,11 +908,11 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>t-738429350467543044</t>
+          <t>t-959172176346836993</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -921,7 +921,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>t-784233737512890376</t>
+          <t>t-960921688975331329</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -934,7 +934,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>t-784234780590080001</t>
+          <t>t-961028171192852485</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -947,11 +947,11 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>t-865644367372967936</t>
+          <t>t-961254369663602688</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -960,11 +960,11 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>t-866152720700514304</t>
+          <t>t-970872683402539011</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -973,20 +973,20 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>t-902187406123835394</t>
+          <t>t-977248381662892039</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>t-902225607563644928</t>
+          <t>t-977294782048428032</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -999,24 +999,24 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>t-950310866641149952</t>
+          <t>t-1000042512319483904</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>t-970872683402539011</t>
+          <t>t-1000115343019343872</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1025,11 +1025,11 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>t-1018804138195513344</t>
+          <t>t-1000762573766184961</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>1</v>
@@ -1038,59 +1038,59 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>t-1018807229267496962</t>
+          <t>t-1001659726067830785</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>t-1018819644377923585</t>
+          <t>t-1054831014869123073</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>t-1018962868379750402</t>
+          <t>t-1054887299698380800</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>t-1019003195874512897</t>
+          <t>t-1055927061867585536</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>t-1019014466770333697</t>
+          <t>t-875896081233567744</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1103,7 +1103,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>t-1019698120098222080</t>
+          <t>t-507610683022643200</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1116,11 +1116,11 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>t-1045002319061012482</t>
+          <t>t-762401879758372864</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -1129,7 +1129,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>t-1045014122092482560</t>
+          <t>t-762402279601344512</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1142,20 +1142,20 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>t-1045027654121000962</t>
+          <t>t-762404827229892608</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>t-1045031106968465408</t>
+          <t>t-517568253363634176</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -1168,24 +1168,24 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>t-1045065376575475712</t>
+          <t>t-518546395729379328</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>t-1054831014869123073</t>
+          <t>t-519264703466315776</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -1194,7 +1194,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>t-1054887299698380800</t>
+          <t>t-533166195508117505</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1207,20 +1207,20 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>t-1055927061867585536</t>
+          <t>t-538622557084082176</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>t-822160325608734720</t>
+          <t>t-852681395487035392</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1233,37 +1233,37 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>t-822824168110493696</t>
+          <t>t-950256330316615680</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>t-823329247884251137</t>
+          <t>t-1049900608294137856</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>t-832760057259384834</t>
+          <t>t-538858836992331776</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -1272,7 +1272,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>t-832777578633064449</t>
+          <t>t-858084101320056832</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1285,7 +1285,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>t-754609055683915776</t>
+          <t>t-858490544007327747</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1298,7 +1298,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>t-762401879758372864</t>
+          <t>t-885277243991314432</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1311,11 +1311,11 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>t-762402279601344512</t>
+          <t>t-885292685086646272</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -1324,20 +1324,20 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>t-762404827229892608</t>
+          <t>t-979396065278427139</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>t-819315426853273600</t>
+          <t>t-593974566453555201</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1350,7 +1350,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>t-827438952974004224</t>
+          <t>t-639446444949180417</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1363,37 +1363,37 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>t-925753092301295616</t>
+          <t>t-756129418616139777</t>
         </is>
       </c>
       <c r="B72" t="n">
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>t-533166195508117505</t>
+          <t>t-824338590389960704</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>t-582884078073987072</t>
+          <t>t-903082857492566018</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -1402,20 +1402,20 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>t-582893069168611328</t>
+          <t>t-910574474956812289</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>t-594694315915350017</t>
+          <t>t-1016140956322713601</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1428,20 +1428,20 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>t-608562753129840640</t>
+          <t>t-548325093256884224</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>t-685243474623336449</t>
+          <t>t-567811309744705538</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1454,72 +1454,72 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>t-739238212518957060</t>
+          <t>t-670312803173986304</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>t-739379635675271168</t>
+          <t>t-858145943971037184</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>t-744529744385892352</t>
+          <t>t-858516314167627776</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>t-744534982144757760</t>
+          <t>t-878362748232622081</t>
         </is>
       </c>
       <c r="B82" t="n">
         <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>t-753035409660186624</t>
+          <t>t-966707160049766400</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>t-841634951439220736</t>
+          <t>t-967596306297483265</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -1532,11 +1532,11 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>t-950256330316615680</t>
+          <t>t-967763105525764097</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C85" t="n">
         <v>1</v>
@@ -1545,24 +1545,24 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>t-987586031829569536</t>
+          <t>t-967806729865060352</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>t-987647086475673600</t>
+          <t>t-967827685333454849</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -1571,37 +1571,37 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>t-987928780621668352</t>
+          <t>t-968065709459750912</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>t-1015939762513956864</t>
+          <t>t-968790557077262336</t>
         </is>
       </c>
       <c r="B89" t="n">
         <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>t-618483539777093632</t>
+          <t>t-672497431242756096</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -1610,20 +1610,20 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>t-745595825670131714</t>
+          <t>t-676490487717625856</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>t-745600923448258560</t>
+          <t>t-676517665188507650</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -1636,46 +1636,46 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>t-788842589554343938</t>
+          <t>t-681802042885697536</t>
         </is>
       </c>
       <c r="B93" t="n">
         <v>1</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>t-847556586600095745</t>
+          <t>t-682128192019234816</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>t-878279115006136321</t>
+          <t>t-682147581405859841</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>t-885277243991314432</t>
+          <t>t-682223092198936576</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -1688,7 +1688,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>t-885292685086646272</t>
+          <t>t-682287065824931840</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -1701,7 +1701,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>t-717023541078728704</t>
+          <t>t-682459381347254272</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -1714,11 +1714,11 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>t-752623570010812416</t>
+          <t>t-682632199527641089</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -1727,11 +1727,11 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>t-752689111933214722</t>
+          <t>t-682755737790099456</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -1740,11 +1740,11 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>t-752696262009450496</t>
+          <t>t-682908634020470785</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -1753,11 +1753,11 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>t-752724839081791488</t>
+          <t>t-682915879026339840</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -1766,11 +1766,11 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>t-756129418616139777</t>
+          <t>t-683017640638582784</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C103" t="n">
         <v>1</v>
@@ -1779,59 +1779,59 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>t-876870634885844994</t>
+          <t>t-683036658942513152</t>
         </is>
       </c>
       <c r="B104" t="n">
         <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>t-876897987485630464</t>
+          <t>t-683077568287866880</t>
         </is>
       </c>
       <c r="B105" t="n">
         <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>t-876995236253376512</t>
+          <t>t-683235960692314112</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>t-917079758076370946</t>
+          <t>t-683258563628777472</t>
         </is>
       </c>
       <c r="B107" t="n">
         <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>t-999634090503569409</t>
+          <t>t-683386799184543745</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -1844,7 +1844,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>t-618395942002102272</t>
+          <t>t-683399457254326272</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -1857,24 +1857,24 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>t-768897641946181632</t>
+          <t>t-683602691965206528</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>t-768901368044134400</t>
+          <t>t-683628764622905344</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -1883,11 +1883,11 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>t-585851418843615232</t>
+          <t>t-683644184683753472</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -1896,33 +1896,33 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>t-641288611472654336</t>
+          <t>t-683649428587155456</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>t-770209564532674560</t>
+          <t>t-683773064040050688</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>t-1000477141224558594</t>
+          <t>t-683968472968228864</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -1935,11 +1935,11 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>t-697866091025080320</t>
+          <t>t-683979793273065473</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -1948,7 +1948,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>t-897129980584439812</t>
+          <t>t-684007082555748352</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -1961,11 +1961,11 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>t-540815358715002880</t>
+          <t>t-684323489562558465</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -1974,33 +1974,33 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>t-552005598615597057</t>
+          <t>t-685408547975331840</t>
         </is>
       </c>
       <c r="B119" t="n">
         <v>0</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>t-552017511018168320</t>
+          <t>t-897129980584439812</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>t-552021252442169344</t>
+          <t>t-536361968840769536</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -2013,20 +2013,20 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>t-552065463610802176</t>
+          <t>t-552005598615597057</t>
         </is>
       </c>
       <c r="B122" t="n">
         <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>t-552468777791524864</t>
+          <t>t-552017511018168320</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -2039,11 +2039,11 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>t-568441199297761281</t>
+          <t>t-552021252442169344</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>t-568878359158984704</t>
+          <t>t-552065463610802176</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -2065,24 +2065,24 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>t-575924078906904576</t>
+          <t>t-552468777791524864</t>
         </is>
       </c>
       <c r="B126" t="n">
         <v>0</v>
       </c>
       <c r="C126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>t-687545498014760960</t>
+          <t>t-575924078906904576</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C127" t="n">
         <v>1</v>
@@ -2091,7 +2091,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>t-743488475874353153</t>
+          <t>t-687545498014760960</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -2104,20 +2104,20 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>t-743501818358042625</t>
+          <t>t-956627624150880257</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>t-953935668199215104</t>
+          <t>t-543357722591514624</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -2130,7 +2130,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>t-953991296196149248</t>
+          <t>t-546995440701296643</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -2143,24 +2143,24 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>t-1014948759934066688</t>
+          <t>t-560163999057448960</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>t-1031843897373278208</t>
+          <t>t-1044757925414273025</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -2169,7 +2169,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>t-1042485319055155201</t>
+          <t>t-1044770473932816384</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -2182,7 +2182,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>t-665687399033397248</t>
+          <t>t-622526710358114306</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -2195,7 +2195,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>t-673151835868430336</t>
+          <t>t-625832003070509056</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -2208,89 +2208,89 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>t-673156978059968512</t>
+          <t>t-626848405877301248</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>t-673168234577838080</t>
+          <t>t-692803310668087296</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>t-682141165802631168</t>
+          <t>t-863530798334476291</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>t-923100909521068032</t>
+          <t>t-876969646846603270</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>t-862822528103759872</t>
+          <t>t-961384199684001793</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>t-547131830642569216</t>
+          <t>t-595961510528180224</t>
         </is>
       </c>
       <c r="B142" t="n">
         <v>1</v>
       </c>
       <c r="C142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>t-782023965489238017</t>
+          <t>t-603598228022501376</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C143" t="n">
         <v>1</v>
@@ -2299,33 +2299,33 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>t-952138958368051200</t>
+          <t>t-720931143055491072</t>
         </is>
       </c>
       <c r="B144" t="n">
         <v>1</v>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>t-952754172880863232</t>
+          <t>t-894558986925744129</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>t-560903834407817217</t>
+          <t>t-764015991344869376</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -2338,7 +2338,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>t-568623295811194880</t>
+          <t>t-886294080040423425</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -2351,7 +2351,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>t-622526710358114306</t>
+          <t>t-948592886060380161</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -2364,11 +2364,11 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>t-625832003070509056</t>
+          <t>t-961914631135617025</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
@@ -2377,20 +2377,20 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>t-626848405877301248</t>
+          <t>t-973190028435353600</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>t-657221044642684928</t>
+          <t>t-987005505154535425</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -2403,7 +2403,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>t-873219337427062785</t>
+          <t>t-784477844240011265</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -2416,7 +2416,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>t-876969646846603270</t>
+          <t>t-671936284651196416</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -2429,33 +2429,33 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>t-1022207950511923200</t>
+          <t>t-903173716451909632</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>t-1035595539918848000</t>
+          <t>t-694715871097278464</t>
         </is>
       </c>
       <c r="B155" t="n">
         <v>1</v>
       </c>
       <c r="C155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>t-603598228022501376</t>
+          <t>t-883080365442838528</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -2468,7 +2468,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>t-720931143055491072</t>
+          <t>t-883215183442739200</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -2481,7 +2481,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>t-894558986925744129</t>
+          <t>t-872405308236337153</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -2494,11 +2494,11 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>t-607855197835149312</t>
+          <t>t-748127558550560768</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -2507,11 +2507,11 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>t-906974272832376832</t>
+          <t>t-876214781744750592</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -2520,7 +2520,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>t-621875663901863937</t>
+          <t>t-799981773354463232</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -2533,11 +2533,11 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>t-700818903744778240</t>
+          <t>t-799998393695305728</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -2546,24 +2546,24 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>t-784477844240011265</t>
+          <t>t-800091318642950144</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>t-671936284651196416</t>
+          <t>t-977485288892059648</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -2572,11 +2572,11 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>t-903173716451909632</t>
+          <t>t-1039228208804233216</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C165" t="n">
         <v>1</v>
@@ -2585,76 +2585,76 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>t-681167053609283584</t>
+          <t>t-1050435927066198018</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>t-861649200160710656</t>
+          <t>t-898040952396193792</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>t-695269003892228096</t>
+          <t>t-898113774225301505</t>
         </is>
       </c>
       <c r="B168" t="n">
         <v>1</v>
       </c>
       <c r="C168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>t-883046827251179521</t>
+          <t>t-898119475089686528</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>t-883048887786909698</t>
+          <t>t-898375447507030017</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>t-883064523128791040</t>
+          <t>t-898397795245215744</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C171" t="n">
         <v>1</v>
@@ -2663,7 +2663,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>t-883077275679432704</t>
+          <t>t-1021604631217164289</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -2676,7 +2676,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>t-707739170878439424</t>
+          <t>t-1021652512343031808</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -2689,7 +2689,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>t-730685047137800192</t>
+          <t>t-1021683870188503041</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -2702,7 +2702,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>t-730687533638619136</t>
+          <t>t-1021786238024527873</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -2715,7 +2715,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>t-769366123678621696</t>
+          <t>t-1031076096287105024</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -2728,20 +2728,20 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>t-946987966475448325</t>
+          <t>t-514175192319680513</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>t-780856348493832192</t>
+          <t>t-863311681820258304</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -2754,7 +2754,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>t-829201577370075136</t>
+          <t>t-911670405483651072</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -2767,24 +2767,24 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>t-829349939947925504</t>
+          <t>t-599936713796886528</t>
         </is>
       </c>
       <c r="B180" t="n">
         <v>0</v>
       </c>
       <c r="C180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>t-829364075721326592</t>
+          <t>t-601913063172771840</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C181" t="n">
         <v>1</v>
@@ -2793,37 +2793,37 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>t-829412936661815299</t>
+          <t>t-602589391198900226</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>t-889517070559334400</t>
+          <t>t-652481072199036928</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>t-1042035586717110280</t>
+          <t>t-662196453281038336</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C184" t="n">
         <v>1</v>
@@ -2832,7 +2832,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>t-863311681820258304</t>
+          <t>t-708426270242164736</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -2845,63 +2845,63 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>t-536338799517634560</t>
+          <t>t-726041703153545216</t>
         </is>
       </c>
       <c r="B186" t="n">
         <v>0</v>
       </c>
       <c r="C186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>t-662196453281038336</t>
+          <t>t-726754497737826305</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>t-721832870604640260</t>
+          <t>t-784456849215123457</t>
         </is>
       </c>
       <c r="B188" t="n">
         <v>1</v>
       </c>
       <c r="C188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>t-721856912548044800</t>
+          <t>t-815857432882769920</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>t-722873292755828736</t>
+          <t>t-816077181575106560</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -2910,20 +2910,20 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>t-851625591652720640</t>
+          <t>t-817334752848056320</t>
         </is>
       </c>
       <c r="B191" t="n">
         <v>1</v>
       </c>
       <c r="C191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>t-852529810760908801</t>
+          <t>t-817481338974507010</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -2936,7 +2936,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>t-852624282018615296</t>
+          <t>t-858067034772566016</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -2949,20 +2949,20 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>t-905607663798636547</t>
+          <t>t-858109132586483713</t>
         </is>
       </c>
       <c r="B194" t="n">
         <v>0</v>
       </c>
       <c r="C194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>t-906292765633515520</t>
+          <t>t-870028367990599681</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -2975,7 +2975,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>t-906696780133388288</t>
+          <t>t-894616667350872064</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -2988,7 +2988,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>t-911712205657317376</t>
+          <t>t-895668017060651009</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -3001,7 +3001,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>t-913139045009633280</t>
+          <t>t-905607663798636547</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -3014,11 +3014,11 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>t-913178067195088902</t>
+          <t>t-906292765633515520</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -3027,20 +3027,20 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>t-913438297258708992</t>
+          <t>t-906696780133388288</t>
         </is>
       </c>
       <c r="B200" t="n">
         <v>1</v>
       </c>
       <c r="C200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>t-998567520113225733</t>
+          <t>t-913139045009633280</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -3053,37 +3053,37 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>t-1050012662120235008</t>
+          <t>t-913178067195088902</t>
         </is>
       </c>
       <c r="B202" t="n">
         <v>1</v>
       </c>
       <c r="C202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>t-578194227852505088</t>
+          <t>t-913438297258708992</t>
         </is>
       </c>
       <c r="B203" t="n">
         <v>1</v>
       </c>
       <c r="C203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>t-611619605899939841</t>
+          <t>t-956329812573945857</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -3092,7 +3092,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>t-634745305263640576</t>
+          <t>t-992252736560222210</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -3105,50 +3105,50 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>t-697902764966301696</t>
+          <t>t-1026272267364253698</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>t-885230061556813824</t>
+          <t>t-611619605899939841</t>
         </is>
       </c>
       <c r="B207" t="n">
         <v>0</v>
       </c>
       <c r="C207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>t-885519574443020288</t>
+          <t>t-626642400555892737</t>
         </is>
       </c>
       <c r="B208" t="n">
         <v>1</v>
       </c>
       <c r="C208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>t-891394338445553666</t>
+          <t>t-626741309693394948</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C209" t="n">
         <v>1</v>
@@ -3157,63 +3157,63 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>t-891401235391066112</t>
+          <t>t-626870204199534598</t>
         </is>
       </c>
       <c r="B210" t="n">
         <v>1</v>
       </c>
       <c r="C210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>t-891671460804259840</t>
+          <t>t-643122505524322304</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>t-891695041609162754</t>
+          <t>t-646027426347155456</t>
         </is>
       </c>
       <c r="B212" t="n">
         <v>1</v>
       </c>
       <c r="C212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>t-892069950281711617</t>
+          <t>t-727306437798576130</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>t-892901315642146816</t>
+          <t>t-763041051426775040</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C214" t="n">
         <v>1</v>
@@ -3222,33 +3222,33 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>t-1030896472881917952</t>
+          <t>t-763066608868794368</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>t-1042832069506871296</t>
+          <t>t-763135787424636928</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>t-533830044200599552</t>
+          <t>t-897457481550618624</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -3261,20 +3261,20 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>t-534294668842766337</t>
+          <t>t-1004794708802048002</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>t-619624637685755904</t>
+          <t>t-1016850546236542983</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -3287,85 +3287,85 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>t-655463817921626112</t>
+          <t>t-1035948096843395073</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>t-538650662780022784</t>
+          <t>t-533830044200599552</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>t-586160130313625600</t>
+          <t>t-534294668842766337</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>t-616575922674769920</t>
+          <t>t-630004911024046080</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>t-616694572853256192</t>
+          <t>t-630051857654751232</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>t-660890514741399552</t>
+          <t>t-630833400857919488</t>
         </is>
       </c>
       <c r="B225" t="n">
         <v>0</v>
       </c>
       <c r="C225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>t-661115206525915136</t>
+          <t>t-638674545726066688</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -3378,20 +3378,20 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>t-661147212135727104</t>
+          <t>t-638724428944150528</t>
         </is>
       </c>
       <c r="B227" t="n">
         <v>1</v>
       </c>
       <c r="C227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>t-661201099085377537</t>
+          <t>t-639699321500364800</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -3404,46 +3404,46 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>t-707575261483687937</t>
+          <t>t-639804238848237568</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>t-716748651113091072</t>
+          <t>t-705116084911763456</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>t-716774298296389632</t>
+          <t>t-721969035412422656</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>t-721969035412422656</t>
+          <t>t-722671206881746944</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -3456,20 +3456,20 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>t-722671206881746944</t>
+          <t>t-745683270160027648</t>
         </is>
       </c>
       <c r="B233" t="n">
         <v>0</v>
       </c>
       <c r="C233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>t-739781293882347520</t>
+          <t>t-757849369496301569</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -3482,33 +3482,33 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>t-802968858214760448</t>
+          <t>t-758572772490637312</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>t-802970857136123904</t>
+          <t>t-775760180936048640</t>
         </is>
       </c>
       <c r="B236" t="n">
         <v>1</v>
       </c>
       <c r="C236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>t-802986234171768832</t>
+          <t>t-775760740204552192</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -3521,7 +3521,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>t-802996470555279360</t>
+          <t>t-775766510182731776</t>
         </is>
       </c>
       <c r="B238" t="n">
@@ -3534,7 +3534,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>t-803023904860151808</t>
+          <t>t-775772257327128576</t>
         </is>
       </c>
       <c r="B239" t="n">
@@ -3547,7 +3547,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>t-803063479473176576</t>
+          <t>t-775805122920189952</t>
         </is>
       </c>
       <c r="B240" t="n">
@@ -3560,7 +3560,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>t-803165461336555521</t>
+          <t>t-776165588917944320</t>
         </is>
       </c>
       <c r="B241" t="n">
@@ -3573,11 +3573,11 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>t-803184972723081216</t>
+          <t>t-845940693256286208</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C242" t="n">
         <v>1</v>
@@ -3586,20 +3586,20 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>t-803191488880513024</t>
+          <t>t-849475288652238849</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>t-803213114628014080</t>
+          <t>t-856624832292827137</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -3612,11 +3612,11 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>t-803415757417758721</t>
+          <t>t-894936422980964352</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C245" t="n">
         <v>1</v>
@@ -3625,20 +3625,20 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>t-804486553280069633</t>
+          <t>t-913153226706472965</t>
         </is>
       </c>
       <c r="B246" t="n">
         <v>0</v>
       </c>
       <c r="C246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>t-903533073358352385</t>
+          <t>t-972048308909826048</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -3651,20 +3651,20 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>t-903589529143189504</t>
+          <t>t-984477965856772096</t>
         </is>
       </c>
       <c r="B248" t="n">
         <v>0</v>
       </c>
       <c r="C248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>t-919174352289005568</t>
+          <t>t-984491425478971393</t>
         </is>
       </c>
       <c r="B249" t="n">
@@ -3677,59 +3677,59 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>t-919528265718665216</t>
+          <t>t-984517270725644288</t>
         </is>
       </c>
       <c r="B250" t="n">
         <v>0</v>
       </c>
       <c r="C250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>t-968863674306834432</t>
+          <t>t-985567499843489798</t>
         </is>
       </c>
       <c r="B251" t="n">
         <v>0</v>
       </c>
       <c r="C251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>t-1006258184636510210</t>
+          <t>t-986933673697120257</t>
         </is>
       </c>
       <c r="B252" t="n">
         <v>1</v>
       </c>
       <c r="C252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>t-1026228357996969984</t>
+          <t>t-1057289433236545538</t>
         </is>
       </c>
       <c r="B253" t="n">
         <v>0</v>
       </c>
       <c r="C253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>t-1037619174145712128</t>
+          <t>t-1014627656082579457</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -3742,59 +3742,59 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>t-1014627656082579457</t>
+          <t>t-859608993752379392</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>t-541450804008218624</t>
+          <t>t-1045126070540865541</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>t-741861803148214272</t>
+          <t>t-772514094360305664</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>t-602992695011889152</t>
+          <t>t-836430214368481288</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>t-772514094360305664</t>
+          <t>t-570559495811813376</t>
         </is>
       </c>
       <c r="B259" t="n">
@@ -3807,7 +3807,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>t-817123537488084993</t>
+          <t>t-570650767369109504</t>
         </is>
       </c>
       <c r="B260" t="n">
@@ -3820,20 +3820,20 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>t-1026494793466048518</t>
+          <t>t-570656230466838528</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>t-549835920762220544</t>
+          <t>t-570659758706962432</t>
         </is>
       </c>
       <c r="B262" t="n">
@@ -3846,7 +3846,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>t-561705902466957314</t>
+          <t>t-570724512095969280</t>
         </is>
       </c>
       <c r="B263" t="n">
@@ -3859,33 +3859,33 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>t-670921727346614272</t>
+          <t>t-570966152807100416</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>t-698062078922375169</t>
+          <t>t-570990183648243712</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>t-702894496737071105</t>
+          <t>t-571060362520502272</t>
         </is>
       </c>
       <c r="B266" t="n">
@@ -3898,11 +3898,11 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>t-795702151049834496</t>
+          <t>t-571231922355097600</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
@@ -3911,7 +3911,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>t-581325099023892480</t>
+          <t>t-571320451407974400</t>
         </is>
       </c>
       <c r="B268" t="n">
@@ -3924,7 +3924,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>t-581326319130116096</t>
+          <t>t-571330597400018944</t>
         </is>
       </c>
       <c r="B269" t="n">
@@ -3937,7 +3937,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>t-581406863343779840</t>
+          <t>t-571345826099941376</t>
         </is>
       </c>
       <c r="B270" t="n">
@@ -3950,11 +3950,11 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>t-581587820248109056</t>
+          <t>t-571920017329156096</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C271" t="n">
         <v>1</v>
@@ -3963,11 +3963,11 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>t-561177173151977473</t>
+          <t>t-572029056453115906</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C272" t="n">
         <v>1</v>
@@ -3976,11 +3976,11 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>t-561426613901209600</t>
+          <t>t-573087826360836097</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C273" t="n">
         <v>1</v>
@@ -3989,33 +3989,33 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>t-561478083538997248</t>
+          <t>t-655077150693990401</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>t-561531868710207489</t>
+          <t>t-669588910935285760</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>t-561552888548560899</t>
+          <t>t-669601333348073473</t>
         </is>
       </c>
       <c r="B276" t="n">
@@ -4028,7 +4028,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>t-561569968660439040</t>
+          <t>t-649689751415599105</t>
         </is>
       </c>
       <c r="B277" t="n">
@@ -4041,7 +4041,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>t-561719764557774848</t>
+          <t>t-561177173151977473</t>
         </is>
       </c>
       <c r="B278" t="n">
@@ -4054,7 +4054,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>t-561830425656852480</t>
+          <t>t-561426613901209600</t>
         </is>
       </c>
       <c r="B279" t="n">
@@ -4067,7 +4067,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>t-562238606618939392</t>
+          <t>t-561478083538997248</t>
         </is>
       </c>
       <c r="B280" t="n">
@@ -4080,7 +4080,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>t-562243257879773184</t>
+          <t>t-561531868710207489</t>
         </is>
       </c>
       <c r="B281" t="n">
@@ -4093,7 +4093,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>t-562251699403096064</t>
+          <t>t-561552888548560899</t>
         </is>
       </c>
       <c r="B282" t="n">
@@ -4106,20 +4106,20 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>t-562279318081269760</t>
+          <t>t-561569968660439040</t>
         </is>
       </c>
       <c r="B283" t="n">
         <v>1</v>
       </c>
       <c r="C283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>t-562339945067847680</t>
+          <t>t-561719764557774848</t>
         </is>
       </c>
       <c r="B284" t="n">
@@ -4132,7 +4132,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>t-562639830182821889</t>
+          <t>t-561830425656852480</t>
         </is>
       </c>
       <c r="B285" t="n">
@@ -4145,37 +4145,37 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>t-563230595221037057</t>
+          <t>t-562238606618939392</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>t-563397372966076416</t>
+          <t>t-562243257879773184</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>t-592720340289224705</t>
+          <t>t-562251699403096064</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C288" t="n">
         <v>1</v>
@@ -4184,20 +4184,20 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>t-636560790015877120</t>
+          <t>t-562279318081269760</t>
         </is>
       </c>
       <c r="B289" t="n">
         <v>1</v>
       </c>
       <c r="C289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>t-636561226298970112</t>
+          <t>t-562339945067847680</t>
         </is>
       </c>
       <c r="B290" t="n">
@@ -4210,7 +4210,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>t-636561581355204609</t>
+          <t>t-562639830182821889</t>
         </is>
       </c>
       <c r="B291" t="n">
@@ -4223,24 +4223,24 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>t-636600809573220352</t>
+          <t>t-563230595221037057</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>t-636742652692688896</t>
+          <t>t-563397372966076416</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C293" t="n">
         <v>1</v>
@@ -4249,7 +4249,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>t-686490326228402176</t>
+          <t>t-610512692353310721</t>
         </is>
       </c>
       <c r="B294" t="n">
@@ -4262,7 +4262,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>t-687307828932030464</t>
+          <t>t-610555659969409025</t>
         </is>
       </c>
       <c r="B295" t="n">
@@ -4275,7 +4275,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>t-800018818399694848</t>
+          <t>t-772934103733788672</t>
         </is>
       </c>
       <c r="B296" t="n">
@@ -4288,20 +4288,20 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>t-800716652195282946</t>
+          <t>t-772960588171403264</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>t-864137650625753088</t>
+          <t>t-773538620472979456</t>
         </is>
       </c>
       <c r="B298" t="n">
@@ -4314,24 +4314,24 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>t-864465975068037122</t>
+          <t>t-773979956305100800</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C299" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>t-864657619700658176</t>
+          <t>t-930445521671589888</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C300" t="n">
         <v>1</v>
@@ -4340,46 +4340,46 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>t-571711350180868097</t>
+          <t>t-957965473316069376</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>t-615316042294890496</t>
+          <t>t-984138305477505025</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>t-901999787855228933</t>
+          <t>t-1049061003617607680</t>
         </is>
       </c>
       <c r="B303" t="n">
         <v>1</v>
       </c>
       <c r="C303" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>t-902015237951549441</t>
+          <t>t-1049351090909667329</t>
         </is>
       </c>
       <c r="B304" t="n">
@@ -4392,89 +4392,89 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>t-1052977443760427009</t>
+          <t>t-1050209065153036288</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>t-1050145290718564352</t>
+          <t>t-817491496857255936</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>t-603639937368469504</t>
+          <t>t-648439576441171968</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>t-604106567907057664</t>
+          <t>t-649621017187512320</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>t-605045307844337664</t>
+          <t>t-651859489713291264</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>t-910191038052077569</t>
+          <t>t-652540388272553984</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>t-644964294954741760</t>
+          <t>t-652542102539235329</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C311" t="n">
         <v>1</v>
@@ -4483,7 +4483,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>t-622598644009668608</t>
+          <t>t-659011315088781312</t>
         </is>
       </c>
       <c r="B312" t="n">
@@ -4496,11 +4496,11 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>t-631280418583658496</t>
+          <t>t-659473740955189248</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C313" t="n">
         <v>1</v>
@@ -4509,46 +4509,46 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>t-636961984953630720</t>
+          <t>t-787849177581649920</t>
         </is>
       </c>
       <c r="B314" t="n">
         <v>1</v>
       </c>
       <c r="C314" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>t-981921278876684288</t>
+          <t>t-906773843066441728</t>
         </is>
       </c>
       <c r="B315" t="n">
         <v>1</v>
       </c>
       <c r="C315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>t-876856640372387842</t>
+          <t>t-906922961621454848</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C316" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>t-886426015374946304</t>
+          <t>t-906981528483364865</t>
         </is>
       </c>
       <c r="B317" t="n">
@@ -4561,7 +4561,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>t-1041361257410904064</t>
+          <t>t-906982446905876480</t>
         </is>
       </c>
       <c r="B318" t="n">
@@ -4574,24 +4574,24 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>t-1041679427464298496</t>
+          <t>t-1057298961642471425</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>t-727600217265049600</t>
+          <t>t-874804635327905792</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -4600,11 +4600,11 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>t-762742863394254850</t>
+          <t>t-1050145290718564352</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C321" t="n">
         <v>1</v>
@@ -4613,59 +4613,59 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>t-668278058953084928</t>
+          <t>t-580101390820876288</t>
         </is>
       </c>
       <c r="B322" t="n">
         <v>1</v>
       </c>
       <c r="C322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>t-715587588204015616</t>
+          <t>t-580474226571915265</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C323" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>t-694804362510503936</t>
+          <t>t-581395014502191104</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C324" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>t-846003285282697216</t>
+          <t>t-837738761547091968</t>
         </is>
       </c>
       <c r="B325" t="n">
         <v>0</v>
       </c>
       <c r="C325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>t-954775347962241025</t>
+          <t>t-669944728155090944</t>
         </is>
       </c>
       <c r="B326" t="n">
@@ -4678,59 +4678,59 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>t-954792612103442432</t>
+          <t>t-786005533685710849</t>
         </is>
       </c>
       <c r="B327" t="n">
         <v>0</v>
       </c>
       <c r="C327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>t-954866409300987904</t>
+          <t>t-910191038052077569</t>
         </is>
       </c>
       <c r="B328" t="n">
         <v>0</v>
       </c>
       <c r="C328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>t-910172109506273280</t>
+          <t>t-912188711261036544</t>
         </is>
       </c>
       <c r="B329" t="n">
         <v>0</v>
       </c>
       <c r="C329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>t-725708603060031489</t>
+          <t>t-912397778260840448</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>t-744360846420107265</t>
+          <t>t-912428211253972997</t>
         </is>
       </c>
       <c r="B331" t="n">
@@ -4743,7 +4743,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>t-1044155993779851264</t>
+          <t>t-975332165528576000</t>
         </is>
       </c>
       <c r="B332" t="n">
@@ -4756,7 +4756,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>t-971386931857772544</t>
+          <t>t-1028993321757077505</t>
         </is>
       </c>
       <c r="B333" t="n">
@@ -4769,46 +4769,46 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>t-1016293496980955136</t>
+          <t>t-1041460734738063360</t>
         </is>
       </c>
       <c r="B334" t="n">
         <v>1</v>
       </c>
       <c r="C334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>t-922899400032178176</t>
+          <t>t-1041507023660081152</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>t-922934157185110016</t>
+          <t>t-1049670308142206978</t>
         </is>
       </c>
       <c r="B336" t="n">
         <v>1</v>
       </c>
       <c r="C336" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>t-965898424523591681</t>
+          <t>t-610843183715463168</t>
         </is>
       </c>
       <c r="B337" t="n">
@@ -4821,11 +4821,11 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>t-1032899444918898688</t>
+          <t>t-735633517237919744</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C338" t="n">
         <v>1</v>
@@ -4834,7 +4834,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>t-779066799077851136</t>
+          <t>t-648598850530226176</t>
         </is>
       </c>
       <c r="B339" t="n">
@@ -4847,7 +4847,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>t-781155273763192832</t>
+          <t>t-677918822104473600</t>
         </is>
       </c>
       <c r="B340" t="n">
@@ -4860,7 +4860,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>t-788788619779665920</t>
+          <t>t-895489338364055553</t>
         </is>
       </c>
       <c r="B341" t="n">
@@ -4873,11 +4873,11 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>t-897110070059728897</t>
+          <t>t-981921278876684288</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C342" t="n">
         <v>1</v>
@@ -4886,7 +4886,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>t-897827875231080448</t>
+          <t>t-660109346915770368</t>
         </is>
       </c>
       <c r="B343" t="n">
@@ -4899,20 +4899,20 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>t-812266777711431682</t>
+          <t>t-660117216885477376</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>t-823317212446556161</t>
+          <t>t-660467638917660672</t>
         </is>
       </c>
       <c r="B345" t="n">
@@ -4925,20 +4925,20 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>t-830540407763300352</t>
+          <t>t-762742863394254850</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>t-863757133304795136</t>
+          <t>t-863149830931185664</t>
         </is>
       </c>
       <c r="B347" t="n">
@@ -4951,7 +4951,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>t-877327075954245633</t>
+          <t>t-842138233173626880</t>
         </is>
       </c>
       <c r="B348" t="n">
@@ -4964,7 +4964,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>t-906573891346165760</t>
+          <t>t-842141623454687232</t>
         </is>
       </c>
       <c r="B349" t="n">
@@ -4977,7 +4977,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>t-1052284815779622917</t>
+          <t>t-842494366820286465</t>
         </is>
       </c>
       <c r="B350" t="n">
@@ -4990,11 +4990,11 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>t-1052565742183272454</t>
+          <t>t-846003285282697216</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C351" t="n">
         <v>1</v>
@@ -5003,11 +5003,11 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>t-1052712831517450241</t>
+          <t>t-848401927432019970</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C352" t="n">
         <v>1</v>
@@ -5016,11 +5016,11 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>t-905261367573090305</t>
+          <t>t-931989476401926144</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C353" t="n">
         <v>1</v>
@@ -5029,20 +5029,20 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>t-961482044650930177</t>
+          <t>t-744360846420107265</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>t-1041752836835614720</t>
+          <t>t-829844333205413888</t>
         </is>
       </c>
       <c r="B355" t="n">
@@ -5055,7 +5055,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>t-1042065710745309186</t>
+          <t>t-751197637794230272</t>
         </is>
       </c>
       <c r="B356" t="n">
@@ -5068,20 +5068,20 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>t-1043080309376466944</t>
+          <t>t-753754552936136704</t>
         </is>
       </c>
       <c r="B357" t="n">
         <v>0</v>
       </c>
       <c r="C357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>t-1043179210905464832</t>
+          <t>t-764984507686490112</t>
         </is>
       </c>
       <c r="B358" t="n">
@@ -5094,63 +5094,63 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>t-702986489890775040</t>
+          <t>t-913112779548176384</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C359" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>t-703410728628305920</t>
+          <t>t-998557475266859013</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>t-859937675339497473</t>
+          <t>t-999117713749495808</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C361" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>t-941194598453571586</t>
+          <t>t-765596657039708160</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C362" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>t-965605976698126341</t>
+          <t>t-766010493563568129</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C363" t="n">
         <v>1</v>
@@ -5159,59 +5159,59 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>t-989520576460001280</t>
+          <t>t-768829814824247296</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>t-1016375311733284864</t>
+          <t>t-768861970195881986</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>t-1022200671666401281</t>
+          <t>t-768886684955975680</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C366" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>t-1040961500553388033</t>
+          <t>t-769194684576960513</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C367" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>t-521063203389050882</t>
+          <t>t-1042371802121596928</t>
         </is>
       </c>
       <c r="B368" t="n">
@@ -5224,33 +5224,33 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>t-521358835361927168</t>
+          <t>t-925465361557975040</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>t-642734533335453700</t>
+          <t>t-781155273763192832</t>
         </is>
       </c>
       <c r="B370" t="n">
         <v>0</v>
       </c>
       <c r="C370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>t-819436418263031808</t>
+          <t>t-897110070059728897</t>
         </is>
       </c>
       <c r="B371" t="n">
@@ -5263,20 +5263,20 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>t-824672856466423809</t>
+          <t>t-897827875231080448</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C372" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>t-1006187748338864128</t>
+          <t>t-803919035318628352</t>
         </is>
       </c>
       <c r="B373" t="n">
@@ -5289,7 +5289,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>t-1006198330727247872</t>
+          <t>t-804312701002457088</t>
         </is>
       </c>
       <c r="B374" t="n">
@@ -5302,7 +5302,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>t-1006207380676280320</t>
+          <t>t-817388602090987520</t>
         </is>
       </c>
       <c r="B375" t="n">
@@ -5315,20 +5315,20 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>t-1006582449827209216</t>
+          <t>t-847243626082050048</t>
         </is>
       </c>
       <c r="B376" t="n">
         <v>1</v>
       </c>
       <c r="C376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>t-676836902981513216</t>
+          <t>t-847412512383356932</t>
         </is>
       </c>
       <c r="B377" t="n">
@@ -5341,11 +5341,11 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>t-750337554457694208</t>
+          <t>t-847416452424519680</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C378" t="n">
         <v>0</v>
@@ -5354,11 +5354,11 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>t-674956056209063937</t>
+          <t>t-847625871712112640</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C379" t="n">
         <v>0</v>
@@ -5367,20 +5367,20 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>t-589443945773535232</t>
+          <t>t-847873968065433600</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C380" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>t-523536371525623808</t>
+          <t>t-848285144846921728</t>
         </is>
       </c>
       <c r="B381" t="n">
@@ -5393,24 +5393,24 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>t-615884908238651393</t>
+          <t>t-848349687950266373</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C382" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>t-642554131211755524</t>
+          <t>t-848632201470259200</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C383" t="n">
         <v>0</v>
@@ -5419,20 +5419,20 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>t-800968114653401088</t>
+          <t>t-848638922687221760</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C384" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>t-884450764084662272</t>
+          <t>t-848870222769606658</t>
         </is>
       </c>
       <c r="B385" t="n">
@@ -5445,20 +5445,20 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>t-884455668140445696</t>
+          <t>t-848971430775709697</t>
         </is>
       </c>
       <c r="B386" t="n">
         <v>1</v>
       </c>
       <c r="C386" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>t-884457897043927040</t>
+          <t>t-849083151532032000</t>
         </is>
       </c>
       <c r="B387" t="n">
@@ -5471,46 +5471,46 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>t-884462539458977792</t>
+          <t>t-849228504088670208</t>
         </is>
       </c>
       <c r="B388" t="n">
         <v>1</v>
       </c>
       <c r="C388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>t-951835055445413893</t>
+          <t>t-852608222380924929</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>t-538674754086244353</t>
+          <t>t-852804949515698178</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C390" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>t-595190714205634560</t>
+          <t>t-855194797681897472</t>
         </is>
       </c>
       <c r="B391" t="n">
@@ -5523,7 +5523,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>t-636255173036388352</t>
+          <t>t-855248575567147008</t>
         </is>
       </c>
       <c r="B392" t="n">
@@ -5536,20 +5536,20 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>t-770572723777105920</t>
+          <t>t-885945201105219584</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C393" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>t-809171890690523137</t>
+          <t>t-885947457330438145</t>
         </is>
       </c>
       <c r="B394" t="n">
@@ -5562,11 +5562,11 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>t-834770863664795650</t>
+          <t>t-830540407763300352</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C395" t="n">
         <v>1</v>
@@ -5575,11 +5575,11 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>t-884135398854635520</t>
+          <t>t-861539001962041345</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C396" t="n">
         <v>0</v>
@@ -5588,20 +5588,20 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>t-884163532958441472</t>
+          <t>t-1047617270736936962</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>t-884173621224239104</t>
+          <t>t-902559120888184833</t>
         </is>
       </c>
       <c r="B398" t="n">
@@ -5614,7 +5614,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>t-884176826679136256</t>
+          <t>t-903611928827674624</t>
         </is>
       </c>
       <c r="B399" t="n">
@@ -5627,7 +5627,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>t-884179431887167489</t>
+          <t>t-882704580865404928</t>
         </is>
       </c>
       <c r="B400" t="n">
@@ -5640,7 +5640,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>t-884282035384320001</t>
+          <t>t-1026649986782650369</t>
         </is>
       </c>
       <c r="B401" t="n">
@@ -5653,11 +5653,11 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>t-884290062598451200</t>
+          <t>t-912214251749744641</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C402" t="n">
         <v>1</v>
@@ -5666,11 +5666,11 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>t-884310032518664194</t>
+          <t>t-955145334002417666</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C403" t="n">
         <v>0</v>
@@ -5679,33 +5679,33 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>t-884325033430200320</t>
+          <t>t-1045400324041846785</t>
         </is>
       </c>
       <c r="B404" t="n">
         <v>1</v>
       </c>
       <c r="C404" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>t-925333063336321024</t>
+          <t>t-1042065710745309186</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C405" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>t-933614181286318081</t>
+          <t>t-1043080309376466944</t>
         </is>
       </c>
       <c r="B406" t="n">
@@ -5718,11 +5718,11 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>t-933625586442035205</t>
+          <t>t-1043179210905464832</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C407" t="n">
         <v>1</v>
@@ -5731,33 +5731,33 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>t-950088164777123841</t>
+          <t>t-1042831980822454273</t>
         </is>
       </c>
       <c r="B408" t="n">
         <v>1</v>
       </c>
       <c r="C408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>t-950818741209747456</t>
+          <t>t-1042864703981084672</t>
         </is>
       </c>
       <c r="B409" t="n">
         <v>1</v>
       </c>
       <c r="C409" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>t-951169520584024064</t>
+          <t>t-1042868533963776005</t>
         </is>
       </c>
       <c r="B410" t="n">
@@ -5770,11 +5770,11 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>t-951600654866317313</t>
+          <t>t-1043255346553389058</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C411" t="n">
         <v>0</v>
@@ -5783,46 +5783,46 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>t-951687956045156352</t>
+          <t>t-519240969838166016</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C412" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>t-977899948724379649</t>
+          <t>t-673357306764140544</t>
         </is>
       </c>
       <c r="B413" t="n">
         <v>0</v>
       </c>
       <c r="C413" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>t-652506002957422592</t>
+          <t>t-970747848747778048</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C414" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>t-669507403621277696</t>
+          <t>t-521063203389050882</t>
         </is>
       </c>
       <c r="B415" t="n">
@@ -5835,7 +5835,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>t-669900887607898113</t>
+          <t>t-521358835361927168</t>
         </is>
       </c>
       <c r="B416" t="n">
@@ -5848,20 +5848,20 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>t-699529516008476673</t>
+          <t>t-635439309563260929</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C417" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>t-917052938425716736</t>
+          <t>t-635461097114484736</t>
         </is>
       </c>
       <c r="B418" t="n">
@@ -5874,7 +5874,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>t-917054284579078144</t>
+          <t>t-635467880918818816</t>
         </is>
       </c>
       <c r="B419" t="n">
@@ -5887,7 +5887,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>t-917061971631108097</t>
+          <t>t-635469518022803456</t>
         </is>
       </c>
       <c r="B420" t="n">
@@ -5900,7 +5900,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>t-917080429227778048</t>
+          <t>t-635491308438728704</t>
         </is>
       </c>
       <c r="B421" t="n">
@@ -5913,24 +5913,24 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>t-917105709682216960</t>
+          <t>t-635718998781390848</t>
         </is>
       </c>
       <c r="B422" t="n">
         <v>1</v>
       </c>
       <c r="C422" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>t-565566410605473792</t>
+          <t>t-636228687013265410</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C423" t="n">
         <v>0</v>
@@ -5939,7 +5939,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>t-1034815239219539970</t>
+          <t>t-661802861446209536</t>
         </is>
       </c>
       <c r="B424" t="n">
@@ -5952,24 +5952,24 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>t-707530442468098049</t>
+          <t>t-824672856466423809</t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>t-707587020831518720</t>
+          <t>t-953177789628407808</t>
         </is>
       </c>
       <c r="B426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C426" t="n">
         <v>0</v>
@@ -5978,33 +5978,33 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>t-570990543225950209</t>
+          <t>t-953520796361744384</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>t-633755138834874368</t>
+          <t>t-869830075268685825</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>t-865160167155003392</t>
+          <t>t-801681235982557184</t>
         </is>
       </c>
       <c r="B429" t="n">
@@ -6017,20 +6017,20 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>t-1006487935733174274</t>
+          <t>t-737154199411122176</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C430" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>t-1024201138277638144</t>
+          <t>t-738967171397758976</t>
         </is>
       </c>
       <c r="B431" t="n">
@@ -6043,7 +6043,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>t-580746776262545409</t>
+          <t>t-595202959648096256</t>
         </is>
       </c>
       <c r="B432" t="n">
@@ -6056,98 +6056,98 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>t-859839256700882944</t>
+          <t>t-676099835372654592</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>t-860843222091935744</t>
+          <t>t-738708820491259904</t>
         </is>
       </c>
       <c r="B434" t="n">
         <v>1</v>
       </c>
       <c r="C434" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>t-861496628741640192</t>
+          <t>t-738754856811417601</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>t-1003856366128259073</t>
+          <t>t-738830571351224320</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C436" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>t-712917955391172609</t>
+          <t>t-739181708906467329</t>
         </is>
       </c>
       <c r="B437" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C437" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>t-737201412497649664</t>
+          <t>t-960182659325493248</t>
         </is>
       </c>
       <c r="B438" t="n">
         <v>1</v>
       </c>
       <c r="C438" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>t-737877218718797825</t>
+          <t>t-1051891605035241474</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>t-738015379373625344</t>
+          <t>t-538959622858883072</t>
         </is>
       </c>
       <c r="B440" t="n">
@@ -6160,11 +6160,11 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>t-738097397058932736</t>
+          <t>t-591871892283334656</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C441" t="n">
         <v>0</v>
@@ -6173,20 +6173,20 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>t-738253541266075652</t>
+          <t>t-629222720161640449</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>t-738419452778274816</t>
+          <t>t-694507587149111296</t>
         </is>
       </c>
       <c r="B443" t="n">
@@ -6199,89 +6199,89 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>t-738714074352123904</t>
+          <t>t-744549085244334080</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C444" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>t-594549643134009344</t>
+          <t>t-744630770116005888</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C445" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>t-720146113794183169</t>
+          <t>t-745023417267724289</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C446" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>t-877183876254269441</t>
+          <t>t-745961763473080321</t>
         </is>
       </c>
       <c r="B447" t="n">
         <v>1</v>
       </c>
       <c r="C447" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>t-877213422538158080</t>
+          <t>t-746461142604668928</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>t-1024752032350195712</t>
+          <t>t-769394896344064001</t>
         </is>
       </c>
       <c r="B449" t="n">
         <v>0</v>
       </c>
       <c r="C449" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>t-612221773757681664</t>
+          <t>t-783909177920020480</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C450" t="n">
         <v>1</v>
@@ -6290,11 +6290,11 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>t-867803560930627585</t>
+          <t>t-784305124269182976</t>
         </is>
       </c>
       <c r="B451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C451" t="n">
         <v>1</v>
@@ -6303,46 +6303,46 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>t-868025997010055168</t>
+          <t>t-933614181286318081</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>t-868097086021095425</t>
+          <t>t-933625586442035205</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C453" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>t-869075299467763714</t>
+          <t>t-948989121611075584</t>
         </is>
       </c>
       <c r="B454" t="n">
         <v>1</v>
       </c>
       <c r="C454" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>t-994824289349242881</t>
+          <t>t-954338199610019841</t>
         </is>
       </c>
       <c r="B455" t="n">
@@ -6355,33 +6355,33 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>t-994897053523341314</t>
+          <t>t-954407598069084160</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C456" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>t-995019257841889281</t>
+          <t>t-954798702530412546</t>
         </is>
       </c>
       <c r="B457" t="n">
         <v>0</v>
       </c>
       <c r="C457" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>t-995256568429064192</t>
+          <t>t-955111272852414464</t>
         </is>
       </c>
       <c r="B458" t="n">
@@ -6394,11 +6394,11 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>t-1019348620489969664</t>
+          <t>t-955374632034594816</t>
         </is>
       </c>
       <c r="B459" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C459" t="n">
         <v>1</v>
@@ -6407,7 +6407,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>t-769927127475097602</t>
+          <t>t-955380505121259520</t>
         </is>
       </c>
       <c r="B460" t="n">
@@ -6420,7 +6420,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>t-1035170375703961601</t>
+          <t>t-955409675251482624</t>
         </is>
       </c>
       <c r="B461" t="n">
@@ -6433,11 +6433,11 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>t-1035201829989056512</t>
+          <t>t-955739643634421760</t>
         </is>
       </c>
       <c r="B462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C462" t="n">
         <v>0</v>
@@ -6446,63 +6446,63 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>t-1035614467998998530</t>
+          <t>t-955742558189162496</t>
         </is>
       </c>
       <c r="B463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>t-636903909362167808</t>
+          <t>t-955766281730445313</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C464" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>t-650407824212660224</t>
+          <t>t-955807241533304833</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C465" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>t-650415832523255809</t>
+          <t>t-956101750120857601</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>t-650581180757073921</t>
+          <t>t-956220929067151360</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C467" t="n">
         <v>1</v>
@@ -6511,37 +6511,37 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>t-650584856162926592</t>
+          <t>t-956413340225589248</t>
         </is>
       </c>
       <c r="B468" t="n">
         <v>1</v>
       </c>
       <c r="C468" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>t-650605489492000769</t>
+          <t>t-956438932681523200</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C469" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>t-953295637679951872</t>
+          <t>t-956447631714279424</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C470" t="n">
         <v>0</v>
@@ -6550,7 +6550,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>t-953311292475011072</t>
+          <t>t-956464588559671297</t>
         </is>
       </c>
       <c r="B471" t="n">
@@ -6563,11 +6563,11 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>t-984045729260982272</t>
+          <t>t-956513066228834304</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C472" t="n">
         <v>0</v>
@@ -6576,37 +6576,37 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>t-652148120952803329</t>
+          <t>t-987423120817643520</t>
         </is>
       </c>
       <c r="B473" t="n">
         <v>0</v>
       </c>
       <c r="C473" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>t-664402656019005440</t>
+          <t>t-1001548678748954624</t>
         </is>
       </c>
       <c r="B474" t="n">
         <v>0</v>
       </c>
       <c r="C474" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>t-663799425475731457</t>
+          <t>t-1001557802375110657</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C475" t="n">
         <v>1</v>
@@ -6615,11 +6615,11 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>t-723039191961985026</t>
+          <t>t-1006399568249008128</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C476" t="n">
         <v>0</v>
@@ -6628,11 +6628,11 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>t-974126323248586752</t>
+          <t>t-1006422910762995712</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C477" t="n">
         <v>1</v>
@@ -6641,24 +6641,24 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>t-666556746308198401</t>
+          <t>t-1006422931839299584</t>
         </is>
       </c>
       <c r="B478" t="n">
         <v>1</v>
       </c>
       <c r="C478" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>t-808055620339384324</t>
+          <t>t-1006427045709180929</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C479" t="n">
         <v>1</v>
@@ -6667,11 +6667,11 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>t-695507166833184769</t>
+          <t>t-1006463635693203456</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C480" t="n">
         <v>1</v>
@@ -6680,46 +6680,46 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>t-698444957653278721</t>
+          <t>t-1052528388341149696</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C481" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>t-943797632639610881</t>
+          <t>t-1056877276875374593</t>
         </is>
       </c>
       <c r="B482" t="n">
         <v>1</v>
       </c>
       <c r="C482" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>t-704826129178370050</t>
+          <t>t-629936150220685312</t>
         </is>
       </c>
       <c r="B483" t="n">
         <v>0</v>
       </c>
       <c r="C483" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>t-835605594534981633</t>
+          <t>t-823181666160144384</t>
         </is>
       </c>
       <c r="B484" t="n">
@@ -6732,7 +6732,7 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>t-835708598772727808</t>
+          <t>t-831105804946247681</t>
         </is>
       </c>
       <c r="B485" t="n">
@@ -6745,11 +6745,11 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>t-952055483354972160</t>
+          <t>t-962370594363838464</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C486" t="n">
         <v>0</v>
@@ -6758,72 +6758,72 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>t-730493187534413824</t>
+          <t>t-1048216558785449986</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C487" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>t-730679314916757504</t>
+          <t>t-1050114319227195392</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C488" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>t-956932857389309953</t>
+          <t>t-979424136656125952</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C489" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>t-957576777848717312</t>
+          <t>t-999158779580121089</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C490" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>t-736607968997838848</t>
+          <t>t-670699425879191552</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>t-737207145662435328</t>
+          <t>t-580368693688999936</t>
         </is>
       </c>
       <c r="B492" t="n">
@@ -6836,20 +6836,20 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>t-737378615814393856</t>
+          <t>t-756468934379966464</t>
         </is>
       </c>
       <c r="B493" t="n">
         <v>0</v>
       </c>
       <c r="C493" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>t-737618316705964032</t>
+          <t>t-580746776262545409</t>
         </is>
       </c>
       <c r="B494" t="n">
@@ -6862,50 +6862,50 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>t-737643792757587968</t>
+          <t>t-760176410539528192</t>
         </is>
       </c>
       <c r="B495" t="n">
         <v>1</v>
       </c>
       <c r="C495" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>t-737668431374389250</t>
+          <t>t-988840187785568257</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>t-737882738997530625</t>
+          <t>t-993886363249455104</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>t-738072611704430592</t>
+          <t>t-1003856366128259073</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C498" t="n">
         <v>1</v>
@@ -6914,7 +6914,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>t-738383058857021440</t>
+          <t>t-1005061843843289088</t>
         </is>
       </c>
       <c r="B499" t="n">
@@ -6927,24 +6927,24 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>t-953202460994232320</t>
+          <t>t-817303376253882368</t>
         </is>
       </c>
       <c r="B500" t="n">
         <v>0</v>
       </c>
       <c r="C500" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>t-953212881809518592</t>
+          <t>t-957917970390450177</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C501" t="n">
         <v>0</v>
@@ -6953,24 +6953,24 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>t-963803678573547520</t>
+          <t>t-590431507967299584</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C502" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>t-957301618868965376</t>
+          <t>t-690751741676142592</t>
         </is>
       </c>
       <c r="B503" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C503" t="n">
         <v>0</v>
@@ -6979,7 +6979,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>t-955134939699310592</t>
+          <t>t-801458708786151425</t>
         </is>
       </c>
       <c r="B504" t="n">
@@ -6992,24 +6992,24 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>t-738019407536984064</t>
+          <t>t-728815708801531904</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C505" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>t-738062401308917760</t>
+          <t>t-728860742099849216</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C506" t="n">
         <v>0</v>
@@ -7018,20 +7018,20 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>t-738968020773703680</t>
+          <t>t-949260261575229441</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C507" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>t-739102239302770689</t>
+          <t>t-873880943819460609</t>
         </is>
       </c>
       <c r="B508" t="n">
@@ -7044,20 +7044,20 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>t-739132972742418432</t>
+          <t>t-874034580747104259</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C509" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>t-739365982360178688</t>
+          <t>t-874852269765931008</t>
         </is>
       </c>
       <c r="B510" t="n">
@@ -7070,46 +7070,46 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>t-739454625393324032</t>
+          <t>t-884366275937521664</t>
         </is>
       </c>
       <c r="B511" t="n">
         <v>1</v>
       </c>
       <c r="C511" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>t-745170424456052736</t>
+          <t>t-740216200379158528</t>
         </is>
       </c>
       <c r="B512" t="n">
         <v>1</v>
       </c>
       <c r="C512" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>t-738790953792720896</t>
+          <t>t-740233298862080000</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C513" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>t-740042390703099904</t>
+          <t>t-740234615814819840</t>
         </is>
       </c>
       <c r="B514" t="n">
@@ -7122,7 +7122,7 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>t-740196910300962816</t>
+          <t>t-740250007081766912</t>
         </is>
       </c>
       <c r="B515" t="n">
@@ -7135,7 +7135,7 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>t-740517137236647936</t>
+          <t>t-740302081416962049</t>
         </is>
       </c>
       <c r="B516" t="n">
@@ -7148,33 +7148,33 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>t-754249103434022912</t>
+          <t>t-633506882188021761</t>
         </is>
       </c>
       <c r="B517" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C517" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>t-760420119554076674</t>
+          <t>t-849766480828878849</t>
         </is>
       </c>
       <c r="B518" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C518" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>t-766238666905747456</t>
+          <t>t-1006630570447777793</t>
         </is>
       </c>
       <c r="B519" t="n">
@@ -7187,7 +7187,7 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>t-775632377695600641</t>
+          <t>t-643112220348534784</t>
         </is>
       </c>
       <c r="B520" t="n">
@@ -7200,33 +7200,33 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>t-775906484295204864</t>
+          <t>t-650407824212660224</t>
         </is>
       </c>
       <c r="B521" t="n">
         <v>1</v>
       </c>
       <c r="C521" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>t-795263551388663808</t>
+          <t>t-650415832523255809</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C522" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>t-906552804285861889</t>
+          <t>t-650581180757073921</t>
         </is>
       </c>
       <c r="B523" t="n">
@@ -7239,7 +7239,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>t-831171283400409088</t>
+          <t>t-650584856162926592</t>
         </is>
       </c>
       <c r="B524" t="n">
@@ -7252,24 +7252,24 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>t-862319925528023040</t>
+          <t>t-650605489492000769</t>
         </is>
       </c>
       <c r="B525" t="n">
         <v>1</v>
       </c>
       <c r="C525" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>t-862320640791121920</t>
+          <t>t-652058053697765376</t>
         </is>
       </c>
       <c r="B526" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C526" t="n">
         <v>0</v>
@@ -7278,7 +7278,7 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>t-844564313012670464</t>
+          <t>t-653076415596888064</t>
         </is>
       </c>
       <c r="B527" t="n">
@@ -7291,46 +7291,46 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>t-989189175357276160</t>
+          <t>t-859792354395533312</t>
         </is>
       </c>
       <c r="B528" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C528" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>t-990385513898094592</t>
+          <t>t-860626885302202369</t>
         </is>
       </c>
       <c r="B529" t="n">
         <v>1</v>
       </c>
       <c r="C529" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>t-861335479475634176</t>
+          <t>t-861365904025714688</t>
         </is>
       </c>
       <c r="B530" t="n">
         <v>1</v>
       </c>
       <c r="C530" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>t-867414851802599424</t>
+          <t>t-861657024731467783</t>
         </is>
       </c>
       <c r="B531" t="n">
@@ -7343,7 +7343,7 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>t-883552231022366723</t>
+          <t>t-861897864632578048</t>
         </is>
       </c>
       <c r="B532" t="n">
@@ -7356,20 +7356,20 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>t-906119454941171712</t>
+          <t>t-862094425949917185</t>
         </is>
       </c>
       <c r="B533" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C533" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>t-953922137156411392</t>
+          <t>t-862663540179701760</t>
         </is>
       </c>
       <c r="B534" t="n">
@@ -7382,33 +7382,33 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>t-955806828146827266</t>
+          <t>t-666556746308198401</t>
         </is>
       </c>
       <c r="B535" t="n">
         <v>1</v>
       </c>
       <c r="C535" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>t-977185697940623360</t>
+          <t>t-1005827335977885696</t>
         </is>
       </c>
       <c r="B536" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C536" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>t-988323500330045442</t>
+          <t>t-676501548063657984</t>
         </is>
       </c>
       <c r="B537" t="n">
@@ -7421,7 +7421,7 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>t-988749833476325376</t>
+          <t>t-695507166833184769</t>
         </is>
       </c>
       <c r="B538" t="n">
@@ -7434,20 +7434,20 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>t-1028077071480832000</t>
+          <t>t-698444957653278721</t>
         </is>
       </c>
       <c r="B539" t="n">
         <v>1</v>
       </c>
       <c r="C539" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>t-1051774073523634182</t>
+          <t>t-948994988666425345</t>
         </is>
       </c>
       <c r="B540" t="n">
@@ -7460,7 +7460,7 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>t-1052071039923044352</t>
+          <t>t-949010413437497347</t>
         </is>
       </c>
       <c r="B541" t="n">
@@ -7473,50 +7473,50 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>t-1052145118726238209</t>
+          <t>t-949151246799142913</t>
         </is>
       </c>
       <c r="B542" t="n">
         <v>1</v>
       </c>
       <c r="C542" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>t-1052182549513035776</t>
+          <t>t-704826129178370050</t>
         </is>
       </c>
       <c r="B543" t="n">
         <v>0</v>
       </c>
       <c r="C543" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>t-494327833263874048</t>
+          <t>t-728492484175745024</t>
         </is>
       </c>
       <c r="B544" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C544" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>t-590545916886659072</t>
+          <t>t-734423204488445952</t>
         </is>
       </c>
       <c r="B545" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C545" t="n">
         <v>0</v>
@@ -7525,46 +7525,46 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>t-786169556586770432</t>
+          <t>t-956932857389309953</t>
         </is>
       </c>
       <c r="B546" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C546" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>t-891629267066290176</t>
+          <t>t-957576777848717312</t>
         </is>
       </c>
       <c r="B547" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C547" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>t-956368490293800960</t>
+          <t>t-1062323949680373760</t>
         </is>
       </c>
       <c r="B548" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C548" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>t-956387965382610945</t>
+          <t>t-743471999876472833</t>
         </is>
       </c>
       <c r="B549" t="n">
@@ -7577,11 +7577,11 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>t-529938272265703424</t>
+          <t>t-737766517157330945</t>
         </is>
       </c>
       <c r="B550" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C550" t="n">
         <v>1</v>
@@ -7590,20 +7590,20 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>t-557932086149918722</t>
+          <t>t-737944067741454336</t>
         </is>
       </c>
       <c r="B551" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C551" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>t-558466774392266752</t>
+          <t>t-1006483455209766912</t>
         </is>
       </c>
       <c r="B552" t="n">
@@ -7616,24 +7616,24 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>t-558501767688642560</t>
+          <t>t-1006781895278055424</t>
         </is>
       </c>
       <c r="B553" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C553" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>t-558892309320724482</t>
+          <t>t-1006804114234322945</t>
         </is>
       </c>
       <c r="B554" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C554" t="n">
         <v>1</v>
@@ -7642,46 +7642,46 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>t-559263075183104000</t>
+          <t>t-1006391548668514309</t>
         </is>
       </c>
       <c r="B555" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C555" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>t-559573400780156928</t>
+          <t>t-1006459221448318981</t>
         </is>
       </c>
       <c r="B556" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C556" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>t-620843348505432064</t>
+          <t>t-738762935133188098</t>
         </is>
       </c>
       <c r="B557" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C557" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>t-666134929525178369</t>
+          <t>t-811198180654272512</t>
         </is>
       </c>
       <c r="B558" t="n">
@@ -7694,20 +7694,20 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>t-666141677652848640</t>
+          <t>t-740249467828482048</t>
         </is>
       </c>
       <c r="B559" t="n">
         <v>1</v>
       </c>
       <c r="C559" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>t-666146479564681217</t>
+          <t>t-740256345773985793</t>
         </is>
       </c>
       <c r="B560" t="n">
@@ -7720,7 +7720,7 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>t-666155143696506880</t>
+          <t>t-743816866171326464</t>
         </is>
       </c>
       <c r="B561" t="n">
@@ -7733,24 +7733,24 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>t-666158894691954689</t>
+          <t>t-754249103434022912</t>
         </is>
       </c>
       <c r="B562" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C562" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>t-666536410439028736</t>
+          <t>t-792319235351535616</t>
         </is>
       </c>
       <c r="B563" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C563" t="n">
         <v>0</v>
@@ -7759,11 +7759,11 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>t-666602420022194177</t>
+          <t>t-795263551388663808</t>
         </is>
       </c>
       <c r="B564" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C564" t="n">
         <v>0</v>
@@ -7772,20 +7772,20 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>t-666664955077242881</t>
+          <t>t-831171283400409088</t>
         </is>
       </c>
       <c r="B565" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C565" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>t-667221889505296388</t>
+          <t>t-834086991646048256</t>
         </is>
       </c>
       <c r="B566" t="n">
@@ -7798,11 +7798,11 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>t-667625624421445632</t>
+          <t>t-834349788053266432</t>
         </is>
       </c>
       <c r="B567" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C567" t="n">
         <v>0</v>
@@ -7811,11 +7811,11 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>t-667976594137350144</t>
+          <t>t-992831860215615489</t>
         </is>
       </c>
       <c r="B568" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C568" t="n">
         <v>1</v>
@@ -7824,7 +7824,7 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>t-668796235004932096</t>
+          <t>t-852898298344099840</t>
         </is>
       </c>
       <c r="B569" t="n">
@@ -7837,20 +7837,20 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>t-669882207800942593</t>
+          <t>t-855547644516732928</t>
         </is>
       </c>
       <c r="B570" t="n">
         <v>1</v>
       </c>
       <c r="C570" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>t-695965752088723456</t>
+          <t>t-855563578274754560</t>
         </is>
       </c>
       <c r="B571" t="n">
@@ -7863,7 +7863,7 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>t-695968588012752896</t>
+          <t>t-883552231022366723</t>
         </is>
       </c>
       <c r="B572" t="n">
@@ -7876,7 +7876,7 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>t-697436431816355840</t>
+          <t>t-886643817893560320</t>
         </is>
       </c>
       <c r="B573" t="n">
@@ -7889,7 +7889,7 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>t-697627864380809216</t>
+          <t>t-904822909704822785</t>
         </is>
       </c>
       <c r="B574" t="n">
@@ -7902,59 +7902,59 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>t-698371050527023104</t>
+          <t>t-953919004132986880</t>
         </is>
       </c>
       <c r="B575" t="n">
         <v>0</v>
       </c>
       <c r="C575" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>t-698770244375093249</t>
+          <t>t-955806828146827266</t>
         </is>
       </c>
       <c r="B576" t="n">
         <v>1</v>
       </c>
       <c r="C576" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>t-730666173340209152</t>
+          <t>t-977185697940623360</t>
         </is>
       </c>
       <c r="B577" t="n">
         <v>0</v>
       </c>
       <c r="C577" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>t-740084104088199168</t>
+          <t>t-986982915262308353</t>
         </is>
       </c>
       <c r="B578" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C578" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>t-785398387059269632</t>
+          <t>t-666296658595069952</t>
         </is>
       </c>
       <c r="B579" t="n">
@@ -7967,7 +7967,7 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>t-798050241861840896</t>
+          <t>t-666325159947563008</t>
         </is>
       </c>
       <c r="B580" t="n">
@@ -7980,7 +7980,7 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>t-798099061475684352</t>
+          <t>t-904503608246362112</t>
         </is>
       </c>
       <c r="B581" t="n">
@@ -7993,20 +7993,20 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>t-814010823689408512</t>
+          <t>t-956368490293800960</t>
         </is>
       </c>
       <c r="B582" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C582" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>t-828910647861616640</t>
+          <t>t-956387965382610945</t>
         </is>
       </c>
       <c r="B583" t="n">
@@ -8019,11 +8019,11 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>t-829261659726295045</t>
+          <t>t-500549350234554368</t>
         </is>
       </c>
       <c r="B584" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C584" t="n">
         <v>1</v>
@@ -8032,11 +8032,11 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>t-831833976029454338</t>
+          <t>t-510001639617351681</t>
         </is>
       </c>
       <c r="B585" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C585" t="n">
         <v>1</v>
@@ -8045,7 +8045,7 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>t-970475324591915008</t>
+          <t>t-566257094865981440</t>
         </is>
       </c>
       <c r="B586" t="n">
@@ -8058,37 +8058,37 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>t-1041319973430255616</t>
+          <t>t-645961089671405568</t>
         </is>
       </c>
       <c r="B587" t="n">
         <v>1</v>
       </c>
       <c r="C587" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>t-777605888655761409</t>
+          <t>t-697436431816355840</t>
         </is>
       </c>
       <c r="B588" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C588" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>t-778041943855026178</t>
+          <t>t-697627864380809216</t>
         </is>
       </c>
       <c r="B589" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C589" t="n">
         <v>1</v>
@@ -8097,11 +8097,11 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>t-778431677144018944</t>
+          <t>t-698371050527023104</t>
         </is>
       </c>
       <c r="B590" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C590" t="n">
         <v>1</v>
@@ -8110,24 +8110,24 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>t-782517721938300928</t>
+          <t>t-698770244375093249</t>
         </is>
       </c>
       <c r="B591" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C591" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>t-820295860747542529</t>
+          <t>t-711861360414433281</t>
         </is>
       </c>
       <c r="B592" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C592" t="n">
         <v>1</v>
@@ -8136,33 +8136,33 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>t-820993538456289280</t>
+          <t>t-711871478451417088</t>
         </is>
       </c>
       <c r="B593" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C593" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>t-827493643661381632</t>
+          <t>t-711899328244113408</t>
         </is>
       </c>
       <c r="B594" t="n">
         <v>1</v>
       </c>
       <c r="C594" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>t-832449416082579456</t>
+          <t>t-712616490994892801</t>
         </is>
       </c>
       <c r="B595" t="n">
@@ -8175,7 +8175,7 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>t-916572694472155137</t>
+          <t>t-806863559212679168</t>
         </is>
       </c>
       <c r="B596" t="n">
@@ -8188,11 +8188,11 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>t-965395788435046400</t>
+          <t>t-828910647861616640</t>
         </is>
       </c>
       <c r="B597" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C597" t="n">
         <v>1</v>
@@ -8201,11 +8201,11 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>t-527780384159703040</t>
+          <t>t-829261659726295045</t>
         </is>
       </c>
       <c r="B598" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C598" t="n">
         <v>1</v>
@@ -8214,7 +8214,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>t-532513757776183296</t>
+          <t>t-837558511772938241</t>
         </is>
       </c>
       <c r="B599" t="n">
@@ -8227,7 +8227,7 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>t-533912579676975104</t>
+          <t>t-837704571640246272</t>
         </is>
       </c>
       <c r="B600" t="n">
@@ -8240,11 +8240,11 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>t-536372518622212096</t>
+          <t>t-865948979183222784</t>
         </is>
       </c>
       <c r="B601" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C601" t="n">
         <v>1</v>
@@ -8253,11 +8253,11 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>t-536830333530804225</t>
+          <t>t-890567544695906304</t>
         </is>
       </c>
       <c r="B602" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C602" t="n">
         <v>1</v>
@@ -8266,20 +8266,20 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>t-536843974086897664</t>
+          <t>t-935721877053505536</t>
         </is>
       </c>
       <c r="B603" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C603" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>t-545488523856338944</t>
+          <t>t-940565575226372102</t>
         </is>
       </c>
       <c r="B604" t="n">
@@ -8292,7 +8292,7 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>t-662632429539057666</t>
+          <t>t-940637216757477377</t>
         </is>
       </c>
       <c r="B605" t="n">
@@ -8305,46 +8305,46 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>t-662681193154920448</t>
+          <t>t-947798399184785408</t>
         </is>
       </c>
       <c r="B606" t="n">
         <v>1</v>
       </c>
       <c r="C606" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>t-663567974029131776</t>
+          <t>t-947806740518641664</t>
         </is>
       </c>
       <c r="B607" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C607" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>t-784943243364487168</t>
+          <t>t-947808691230822401</t>
         </is>
       </c>
       <c r="B608" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C608" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>t-785071804276576256</t>
+          <t>t-947833275673747457</t>
         </is>
       </c>
       <c r="B609" t="n">
@@ -8357,7 +8357,7 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>t-786121283209564160</t>
+          <t>t-948185680043155456</t>
         </is>
       </c>
       <c r="B610" t="n">
@@ -8370,20 +8370,20 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>t-787201722892455936</t>
+          <t>t-948407157803728896</t>
         </is>
       </c>
       <c r="B611" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C611" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>t-787228854490243072</t>
+          <t>t-948721205443358720</t>
         </is>
       </c>
       <c r="B612" t="n">
@@ -8396,11 +8396,11 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>t-792955986956824576</t>
+          <t>t-948800260238815232</t>
         </is>
       </c>
       <c r="B613" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C613" t="n">
         <v>1</v>
@@ -8409,20 +8409,20 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>t-793029205319491584</t>
+          <t>t-948884291743870976</t>
         </is>
       </c>
       <c r="B614" t="n">
         <v>1</v>
       </c>
       <c r="C614" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>t-793055195232018432</t>
+          <t>t-950179252325859328</t>
         </is>
       </c>
       <c r="B615" t="n">
@@ -8435,24 +8435,24 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>t-796319752176009216</t>
+          <t>t-950592034162774021</t>
         </is>
       </c>
       <c r="B616" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C616" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>t-796346157156864001</t>
+          <t>t-950680110948007937</t>
         </is>
       </c>
       <c r="B617" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C617" t="n">
         <v>1</v>
@@ -8461,11 +8461,11 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>t-796369433241403393</t>
+          <t>t-951371471217090560</t>
         </is>
       </c>
       <c r="B618" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C618" t="n">
         <v>1</v>
@@ -8474,7 +8474,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>t-796693709639168001</t>
+          <t>t-952033538005716993</t>
         </is>
       </c>
       <c r="B619" t="n">
@@ -8487,7 +8487,7 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>t-797722245741223936</t>
+          <t>t-952059671258447872</t>
         </is>
       </c>
       <c r="B620" t="n">
@@ -8500,33 +8500,33 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>t-797729987348418561</t>
+          <t>t-952061652182028289</t>
         </is>
       </c>
       <c r="B621" t="n">
         <v>1</v>
       </c>
       <c r="C621" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>t-797771440128860162</t>
+          <t>t-952118349386850304</t>
         </is>
       </c>
       <c r="B622" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C622" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>t-797771478930366464</t>
+          <t>t-953168990901284865</t>
         </is>
       </c>
       <c r="B623" t="n">
@@ -8539,33 +8539,33 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>t-797792110535528448</t>
+          <t>t-970475324591915008</t>
         </is>
       </c>
       <c r="B624" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C624" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>t-798105876364029953</t>
+          <t>t-509160710316650496</t>
         </is>
       </c>
       <c r="B625" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C625" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>t-799522784040849408</t>
+          <t>t-509293535221145601</t>
         </is>
       </c>
       <c r="B626" t="n">
@@ -8578,11 +8578,11 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>t-836823983353909248</t>
+          <t>t-706517570451427328</t>
         </is>
       </c>
       <c r="B627" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C627" t="n">
         <v>1</v>
@@ -8591,7 +8591,7 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>t-842271490141634560</t>
+          <t>t-710310372985741313</t>
         </is>
       </c>
       <c r="B628" t="n">
@@ -8604,11 +8604,11 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>t-842322052103122944</t>
+          <t>t-838217823608438784</t>
         </is>
       </c>
       <c r="B629" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C629" t="n">
         <v>0</v>
@@ -8617,7 +8617,7 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>t-842905808266448896</t>
+          <t>t-869476060991152129</t>
         </is>
       </c>
       <c r="B630" t="n">
@@ -8630,20 +8630,20 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>t-842910185718931456</t>
+          <t>t-871870603011043328</t>
         </is>
       </c>
       <c r="B631" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C631" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>t-845583720950128640</t>
+          <t>t-872126007855038464</t>
         </is>
       </c>
       <c r="B632" t="n">
@@ -8656,7 +8656,7 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>t-880004628884013057</t>
+          <t>t-916572694472155137</t>
         </is>
       </c>
       <c r="B633" t="n">
@@ -8669,11 +8669,11 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>t-928491239808233473</t>
+          <t>t-965395788435046400</t>
         </is>
       </c>
       <c r="B634" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C634" t="n">
         <v>0</v>
@@ -8682,7 +8682,7 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>t-928882270554877953</t>
+          <t>t-976046458834116609</t>
         </is>
       </c>
       <c r="B635" t="n">
@@ -8695,7 +8695,7 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>t-928900503953588224</t>
+          <t>t-533912579676975104</t>
         </is>
       </c>
       <c r="B636" t="n">
@@ -8708,20 +8708,20 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>t-928967839649804289</t>
+          <t>t-659219094017708032</t>
         </is>
       </c>
       <c r="B637" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C637" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>t-929323628226686976</t>
+          <t>t-671487099355426816</t>
         </is>
       </c>
       <c r="B638" t="n">
@@ -8734,20 +8734,20 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>t-960348165114273792</t>
+          <t>t-671928198360391680</t>
         </is>
       </c>
       <c r="B639" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C639" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>t-976030387188137984</t>
+          <t>t-672328618379362304</t>
         </is>
       </c>
       <c r="B640" t="n">
@@ -8760,20 +8760,20 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>t-976030855033319425</t>
+          <t>t-673050773710839808</t>
         </is>
       </c>
       <c r="B641" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C641" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>t-976037405776990208</t>
+          <t>t-674612681832140800</t>
         </is>
       </c>
       <c r="B642" t="n">
@@ -8786,11 +8786,11 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>t-586217765666623488</t>
+          <t>t-685773216275533824</t>
         </is>
       </c>
       <c r="B643" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C643" t="n">
         <v>1</v>
@@ -8799,11 +8799,11 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>t-535750936824528896</t>
+          <t>t-718078465698881536</t>
         </is>
       </c>
       <c r="B644" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C644" t="n">
         <v>0</v>
@@ -8812,7 +8812,7 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>t-535750956848140288</t>
+          <t>t-718738885862232064</t>
         </is>
       </c>
       <c r="B645" t="n">
@@ -8825,7 +8825,7 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>t-535751324143341568</t>
+          <t>t-718790966774083584</t>
         </is>
       </c>
       <c r="B646" t="n">
@@ -8838,7 +8838,7 @@
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>t-535754365856776193</t>
+          <t>t-732021013433724928</t>
         </is>
       </c>
       <c r="B647" t="n">
@@ -8851,11 +8851,11 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>t-535786478451048448</t>
+          <t>t-732494989838540800</t>
         </is>
       </c>
       <c r="B648" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C648" t="n">
         <v>1</v>
@@ -8864,7 +8864,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>t-546954418067738625</t>
+          <t>t-732496065941798912</t>
         </is>
       </c>
       <c r="B649" t="n">
@@ -8877,7 +8877,7 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>t-547052080943214593</t>
+          <t>t-799522784040849408</t>
         </is>
       </c>
       <c r="B650" t="n">
@@ -8890,20 +8890,20 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>t-547052404026249217</t>
+          <t>t-807384780572459008</t>
         </is>
       </c>
       <c r="B651" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C651" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>t-547288951820521472</t>
+          <t>t-834984646416842753</t>
         </is>
       </c>
       <c r="B652" t="n">
@@ -8916,7 +8916,7 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>t-547333815882887168</t>
+          <t>t-834986851718946816</t>
         </is>
       </c>
       <c r="B653" t="n">
@@ -8929,7 +8929,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>t-547368132457689088</t>
+          <t>t-835051963096121344</t>
         </is>
       </c>
       <c r="B654" t="n">
@@ -8942,7 +8942,7 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>t-547431547935412224</t>
+          <t>t-912888084739641344</t>
         </is>
       </c>
       <c r="B655" t="n">
@@ -8955,7 +8955,7 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>t-547610562692009985</t>
+          <t>t-913276391470227456</t>
         </is>
       </c>
       <c r="B656" t="n">
@@ -8968,11 +8968,11 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>t-547694551637700608</t>
+          <t>t-924905228415193088</t>
         </is>
       </c>
       <c r="B657" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C657" t="n">
         <v>0</v>
@@ -8981,24 +8981,24 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>t-555289784240054272</t>
+          <t>t-976030387188137984</t>
         </is>
       </c>
       <c r="B658" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C658" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>t-555290912268750848</t>
+          <t>t-976030855033319425</t>
         </is>
       </c>
       <c r="B659" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C659" t="n">
         <v>1</v>
@@ -9007,11 +9007,11 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>t-555447424768954368</t>
+          <t>t-976037405776990208</t>
         </is>
       </c>
       <c r="B660" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C660" t="n">
         <v>1</v>
@@ -9020,7 +9020,7 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>t-802829831633108992</t>
+          <t>t-1036192189947281408</t>
         </is>
       </c>
       <c r="B661" t="n">
@@ -9033,20 +9033,20 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>t-1032843605826621440</t>
+          <t>t-508042249457139712</t>
         </is>
       </c>
       <c r="B662" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C662" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>t-902843730587115520</t>
+          <t>t-555289784240054272</t>
         </is>
       </c>
       <c r="B663" t="n">
@@ -9059,11 +9059,11 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>t-801391859083988993</t>
+          <t>t-555290912268750848</t>
         </is>
       </c>
       <c r="B664" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C664" t="n">
         <v>1</v>
@@ -9072,11 +9072,11 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>t-969977636670918656</t>
+          <t>t-555447424768954368</t>
         </is>
       </c>
       <c r="B665" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C665" t="n">
         <v>1</v>
@@ -9085,7 +9085,7 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>t-532101195737735168</t>
+          <t>t-801312317355003904</t>
         </is>
       </c>
       <c r="B666" t="n">
@@ -9098,7 +9098,7 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>t-532807839664730113</t>
+          <t>t-936830929384828928</t>
         </is>
       </c>
       <c r="B667" t="n">
@@ -9111,11 +9111,11 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>t-685036854010339328</t>
+          <t>t-936988511051292672</t>
         </is>
       </c>
       <c r="B668" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C668" t="n">
         <v>1</v>
@@ -9124,7 +9124,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>t-797741772730306560</t>
+          <t>t-1032843605826621440</t>
         </is>
       </c>
       <c r="B669" t="n">
@@ -9137,11 +9137,11 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>t-797789959478353920</t>
+          <t>t-527311291191263232</t>
         </is>
       </c>
       <c r="B670" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C670" t="n">
         <v>1</v>
@@ -9150,7 +9150,7 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>t-797794521597644800</t>
+          <t>t-799444908029284352</t>
         </is>
       </c>
       <c r="B671" t="n">
@@ -9163,72 +9163,72 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>t-928119470215847936</t>
+          <t>t-799480577057583104</t>
         </is>
       </c>
       <c r="B672" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C672" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>t-702026039967531008</t>
+          <t>t-919610638351003649</t>
         </is>
       </c>
       <c r="B673" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C673" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>t-708854826730295296</t>
+          <t>t-919611818183503872</t>
         </is>
       </c>
       <c r="B674" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C674" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>t-709944298301628416</t>
+          <t>t-919614704967757825</t>
         </is>
       </c>
       <c r="B675" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C675" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>t-715026472285708288</t>
+          <t>t-919712337681985537</t>
         </is>
       </c>
       <c r="B676" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C676" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>t-764336375894306816</t>
+          <t>t-919728404907167744</t>
         </is>
       </c>
       <c r="B677" t="n">
@@ -9241,33 +9241,33 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>t-764417813717086208</t>
+          <t>t-919751765871886336</t>
         </is>
       </c>
       <c r="B678" t="n">
         <v>1</v>
       </c>
       <c r="C678" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>t-773077201063407617</t>
+          <t>t-919766847666274304</t>
         </is>
       </c>
       <c r="B679" t="n">
         <v>1</v>
       </c>
       <c r="C679" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>t-785106169677230080</t>
+          <t>t-919943414766063617</t>
         </is>
       </c>
       <c r="B680" t="n">
@@ -9280,7 +9280,7 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>t-785108107227561984</t>
+          <t>t-920179252292739072</t>
         </is>
       </c>
       <c r="B681" t="n">
@@ -9293,7 +9293,7 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>t-785110315553787904</t>
+          <t>t-920416544319926272</t>
         </is>
       </c>
       <c r="B682" t="n">
@@ -9306,24 +9306,24 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>t-785111654228856832</t>
+          <t>t-666809196977909760</t>
         </is>
       </c>
       <c r="B683" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C683" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>t-785153740848308225</t>
+          <t>t-685036854010339328</t>
         </is>
       </c>
       <c r="B684" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C684" t="n">
         <v>1</v>
@@ -9332,7 +9332,7 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>t-785284230573993984</t>
+          <t>t-757365069608923136</t>
         </is>
       </c>
       <c r="B685" t="n">
@@ -9345,7 +9345,7 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>t-785337680368467968</t>
+          <t>t-919103523458969600</t>
         </is>
       </c>
       <c r="B686" t="n">
@@ -9358,7 +9358,7 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>t-785343194607202304</t>
+          <t>t-803451448700780544</t>
         </is>
       </c>
       <c r="B687" t="n">
@@ -9371,7 +9371,7 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>t-785389967123984386</t>
+          <t>t-803454039333556224</t>
         </is>
       </c>
       <c r="B688" t="n">
@@ -9384,20 +9384,20 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>t-786190856218746880</t>
+          <t>t-803455995494027264</t>
         </is>
       </c>
       <c r="B689" t="n">
         <v>1</v>
       </c>
       <c r="C689" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>t-786491706409492481</t>
+          <t>t-803466221962215424</t>
         </is>
       </c>
       <c r="B690" t="n">
@@ -9410,7 +9410,7 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>t-964122358905823232</t>
+          <t>t-803470959600467968</t>
         </is>
       </c>
       <c r="B691" t="n">
@@ -9423,7 +9423,7 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>t-577656940282540032</t>
+          <t>t-924811540154540032</t>
         </is>
       </c>
       <c r="B692" t="n">
@@ -9436,7 +9436,7 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>t-692022677649797120</t>
+          <t>t-924943312192073729</t>
         </is>
       </c>
       <c r="B693" t="n">
@@ -9449,7 +9449,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>t-984973285124222976</t>
+          <t>t-540776934658277377</t>
         </is>
       </c>
       <c r="B694" t="n">
@@ -9462,7 +9462,7 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>t-557074144505114625</t>
+          <t>t-558414856756293634</t>
         </is>
       </c>
       <c r="B695" t="n">
@@ -9475,7 +9475,7 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>t-1027038929319411712</t>
+          <t>t-558416982677422081</t>
         </is>
       </c>
       <c r="B696" t="n">
@@ -9488,11 +9488,11 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>t-1027057881365901312</t>
+          <t>t-636337860757483520</t>
         </is>
       </c>
       <c r="B697" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C697" t="n">
         <v>1</v>
@@ -9501,33 +9501,33 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>t-1027179632922046467</t>
+          <t>t-702026039967531008</t>
         </is>
       </c>
       <c r="B698" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C698" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>t-564756286211100672</t>
+          <t>t-715026472285708288</t>
         </is>
       </c>
       <c r="B699" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C699" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>t-565303060420112386</t>
+          <t>t-764336375894306816</t>
         </is>
       </c>
       <c r="B700" t="n">
@@ -9540,72 +9540,72 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>t-565336619021262848</t>
+          <t>t-764417813717086208</t>
         </is>
       </c>
       <c r="B701" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C701" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>t-594000547591553024</t>
+          <t>t-773077201063407617</t>
         </is>
       </c>
       <c r="B702" t="n">
         <v>1</v>
       </c>
       <c r="C702" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>t-594263552824741888</t>
+          <t>t-965551093982769152</t>
         </is>
       </c>
       <c r="B703" t="n">
         <v>1</v>
       </c>
       <c r="C703" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>t-594718318050684929</t>
+          <t>t-960667988255850496</t>
         </is>
       </c>
       <c r="B704" t="n">
         <v>1</v>
       </c>
       <c r="C704" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>t-595757559006507011</t>
+          <t>t-734985227739619329</t>
         </is>
       </c>
       <c r="B705" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C705" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>t-780018288940158976</t>
+          <t>t-557074144505114625</t>
         </is>
       </c>
       <c r="B706" t="n">
@@ -9618,59 +9618,59 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>t-781093621592383488</t>
+          <t>t-950631505486737408</t>
         </is>
       </c>
       <c r="B707" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C707" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>t-954254379967660032</t>
+          <t>t-950698684148142080</t>
         </is>
       </c>
       <c r="B708" t="n">
         <v>0</v>
       </c>
       <c r="C708" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>t-563225583400648704</t>
+          <t>t-941661763132579840</t>
         </is>
       </c>
       <c r="B709" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C709" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>t-580384120221487104</t>
+          <t>t-556107639625510912</t>
         </is>
       </c>
       <c r="B710" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C710" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>t-978443713629204480</t>
+          <t>t-594000547591553024</t>
         </is>
       </c>
       <c r="B711" t="n">
@@ -9683,7 +9683,7 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>t-978559522900910080</t>
+          <t>t-594263552824741888</t>
         </is>
       </c>
       <c r="B712" t="n">
@@ -9696,20 +9696,20 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>t-720546793344270336</t>
+          <t>t-594718318050684929</t>
         </is>
       </c>
       <c r="B713" t="n">
         <v>1</v>
       </c>
       <c r="C713" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>t-729241413867556864</t>
+          <t>t-595757559006507011</t>
         </is>
       </c>
       <c r="B714" t="n">
@@ -9722,7 +9722,7 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>t-819830340390830081</t>
+          <t>t-706439330877714432</t>
         </is>
       </c>
       <c r="B715" t="n">
@@ -9735,24 +9735,24 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>t-572370799971053568</t>
+          <t>t-936534965277294597</t>
         </is>
       </c>
       <c r="B716" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C716" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>t-863292024522395649</t>
+          <t>t-936606274795462656</t>
         </is>
       </c>
       <c r="B717" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C717" t="n">
         <v>0</v>
@@ -9761,7 +9761,7 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>t-883957999576002561</t>
+          <t>t-563242661562576896</t>
         </is>
       </c>
       <c r="B718" t="n">
@@ -9774,7 +9774,7 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>t-935417453286326277</t>
+          <t>t-564304402253508608</t>
         </is>
       </c>
       <c r="B719" t="n">
@@ -9787,11 +9787,11 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>t-796860246736052224</t>
+          <t>t-698712295900229633</t>
         </is>
       </c>
       <c r="B720" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C720" t="n">
         <v>1</v>
@@ -9800,7 +9800,7 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>t-737450472194211841</t>
+          <t>t-761430337377349632</t>
         </is>
       </c>
       <c r="B721" t="n">
@@ -9813,11 +9813,11 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>t-737498199435317252</t>
+          <t>t-905053100729356288</t>
         </is>
       </c>
       <c r="B722" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C722" t="n">
         <v>1</v>
@@ -9826,7 +9826,7 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>t-702431733740920832</t>
+          <t>t-998840776758120448</t>
         </is>
       </c>
       <c r="B723" t="n">
@@ -9839,7 +9839,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>t-702439207684464640</t>
+          <t>t-674136729771577344</t>
         </is>
       </c>
       <c r="B724" t="n">
@@ -9852,7 +9852,7 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>t-786434119072821249</t>
+          <t>t-702366811925438465</t>
         </is>
       </c>
       <c r="B725" t="n">
@@ -9865,20 +9865,20 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>t-732116489394851840</t>
+          <t>t-997052112126136320</t>
         </is>
       </c>
       <c r="B726" t="n">
         <v>0</v>
       </c>
       <c r="C726" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>t-732306842290946048</t>
+          <t>t-883957999576002561</t>
         </is>
       </c>
       <c r="B727" t="n">
@@ -9891,7 +9891,7 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>t-745577469814538240</t>
+          <t>t-697592269315010562</t>
         </is>
       </c>
       <c r="B728" t="n">
@@ -9904,7 +9904,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>t-780951872647475200</t>
+          <t>t-697721034691096580</t>
         </is>
       </c>
       <c r="B729" t="n">
@@ -9917,7 +9917,7 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>t-833862725059031044</t>
+          <t>t-702431733740920832</t>
         </is>
       </c>
       <c r="B730" t="n">
@@ -9930,13 +9930,39 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>t-816256005461987328</t>
+          <t>t-702439207684464640</t>
         </is>
       </c>
       <c r="B731" t="n">
         <v>1</v>
       </c>
       <c r="C731" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>t-733197295139741697</t>
+        </is>
+      </c>
+      <c r="B732" t="n">
+        <v>1</v>
+      </c>
+      <c r="C732" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>t-780951872647475200</t>
+        </is>
+      </c>
+      <c r="B733" t="n">
+        <v>1</v>
+      </c>
+      <c r="C733" t="n">
         <v>1</v>
       </c>
     </row>
